--- a/onlineexam/excels/学生列表模板.xlsx
+++ b/onlineexam/excels/学生列表模板.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,14 @@
   </si>
   <si>
     <t>141250106@smail.nju.edu.cn</t>
+  </si>
+  <si>
+    <t>组别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -399,28 +407,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="27.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/onlineexam/excels/学生列表模板.xlsx
+++ b/onlineexam/excels/学生列表模板.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\java workplace2\TSS-Gamma\onlineexam\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/echo/Desktop/vue-learning/onlineexam/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20500" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,12 @@
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -39,18 +42,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sbin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>141250106@smail.nju.edu.cn</t>
-  </si>
-  <si>
     <t>组别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>141250107@smail.nju.edu.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -58,7 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -68,6 +72,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -90,18 +102,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -410,15 +429,15 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.6328125" customWidth="1"/>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,22 +445,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -452,7 +474,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -465,7 +487,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.625" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
